--- a/Parcial 2/02 Tablas dinamicas/05 Ejercicios tablas dinamicas Soluciones.xlsx
+++ b/Parcial 2/02 Tablas dinamicas/05 Ejercicios tablas dinamicas Soluciones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 2\Clases\02 Tablas dinamicas\Ejercicio 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 2\02 Tablas dinamicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B407EF7-74E4-48F6-B3BC-300AC92213AC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="8235" tabRatio="874" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas dinámicas 1" sheetId="3" r:id="rId1"/>
@@ -29,6 +30,7 @@
     <definedName name="Abril">#REF!</definedName>
     <definedName name="anscount" hidden="1">2</definedName>
     <definedName name="Apellido">'[1]27'!$C$15:$C$22</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="5">FSTd!$M$17:$Q$17</definedName>
     <definedName name="base_datos">'[1]76'!$A$58:$E$74</definedName>
     <definedName name="BudgetTab" localSheetId="5">#REF!</definedName>
     <definedName name="BudgetTab" localSheetId="2">#REF!</definedName>
@@ -43,7 +45,7 @@
     <definedName name="Comida" localSheetId="5">#REF!</definedName>
     <definedName name="Comida" localSheetId="2">#REF!</definedName>
     <definedName name="Comida">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="5">FSTd!$M$13:$R$16</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">FSTd!$M$13:$R$15</definedName>
     <definedName name="cuota">'[1]32'!$A$11:$D$28</definedName>
     <definedName name="Domicilio">'[1]27'!$D$15:$D$22</definedName>
     <definedName name="Enero" localSheetId="5">#REF!</definedName>
@@ -73,17 +75,17 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId8"/>
-    <pivotCache cacheId="17" r:id="rId9"/>
-    <pivotCache cacheId="23" r:id="rId10"/>
-    <pivotCache cacheId="31" r:id="rId11"/>
-    <pivotCache cacheId="39" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
+    <pivotCache cacheId="5" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="181">
   <si>
     <t>Tabla Compras</t>
   </si>
@@ -996,6 +998,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,15 +1016,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma [0]" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1074,7 +1076,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Ejercicios tablas dinamicas Soluciones.xlsx]Tablas dinámicas 3!TablaDinámica12</c:name>
+    <c:name>[05 Ejercicios tablas dinamicas Soluciones.xlsx]Tablas dinámicas 3!TablaDinámica12</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -4542,7 +4544,17 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Importe" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="35" maxValue="675"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="35" maxValue="675" count="9">
+        <n v="500"/>
+        <n v="540"/>
+        <n v="340"/>
+        <n v="220"/>
+        <n v="675"/>
+        <n v="105"/>
+        <n v="200"/>
+        <n v="180"/>
+        <n v="35"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -6086,73 +6098,93 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="500"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="540"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="340"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="220"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="675"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
     <x v="2"/>
     <x v="5"/>
-    <n v="105"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
     <x v="6"/>
-    <n v="200"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="1"/>
     <x v="7"/>
-    <n v="180"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="2"/>
     <x v="8"/>
-    <n v="35"/>
+    <x v="8"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D804423D-DC82-40BE-B3CB-D4409A1CFABE}" name="TablaDinámica5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Departamento">
-  <location ref="A48:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6E4FAF8-D892-43C8-BE91-58C2A2631ACB}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Departamento">
+  <location ref="A29:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="17">
+        <item x="11"/>
+        <item x="0"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -6164,7 +6196,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -6187,7 +6219,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Máx. de Sueldo" fld="6" subtotal="max" baseField="3" baseItem="0"/>
+    <dataField name="Cuenta de Nombre" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6202,7 +6234,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E6AD64D-8E3D-4851-8507-51E5A55040EC}" name="TablaDinámica11" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E6AD64D-8E3D-4851-8507-51E5A55040EC}" name="TablaDinámica11" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A42:D48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -6297,7 +6329,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A7A7F35-374A-4340-B0F1-173CF47468F9}" name="TablaDinámica10" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A7A7F35-374A-4340-B0F1-173CF47468F9}" name="TablaDinámica10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A34:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -6379,7 +6411,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C207B66-61AB-4FB8-8C9A-D7CE857BF69C}" name="TablaDinámica15" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C207B66-61AB-4FB8-8C9A-D7CE857BF69C}" name="TablaDinámica15" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A135:I143" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -6498,7 +6530,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{004D8B08-FF0D-43CD-880C-BA924783D1D5}" name="TablaDinámica14" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{004D8B08-FF0D-43CD-880C-BA924783D1D5}" name="TablaDinámica14" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A125:E133" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -6597,7 +6629,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78B611CC-C404-47DB-8D72-9CA9294C7050}" name="TablaDinámica13" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78B611CC-C404-47DB-8D72-9CA9294C7050}" name="TablaDinámica13" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A116:B123" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -6674,7 +6706,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA825E91-0112-4CE9-95D5-1250CE315CFC}" name="TablaDinámica18" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA825E91-0112-4CE9-95D5-1250CE315CFC}" name="TablaDinámica18" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A39:C43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -6735,7 +6767,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCD8197D-6A54-4D8A-86B9-375034104ECB}" name="TablaDinámica17" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCD8197D-6A54-4D8A-86B9-375034104ECB}" name="TablaDinámica17" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A30:E37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -6816,7 +6848,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BA2F8A8-9E22-4AEA-9D35-08532835F13A}" name="TablaDinámica16" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BA2F8A8-9E22-4AEA-9D35-08532835F13A}" name="TablaDinámica16" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A24:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -6877,7 +6909,61 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA7C135C-24D6-4897-81F7-FE740BB25640}" name="TablaDinámica4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Departamento">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D804423D-DC82-40BE-B3CB-D4409A1CFABE}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Departamento">
+  <location ref="A48:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Máx. de Sueldo" fld="6" subtotal="max" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA7C135C-24D6-4897-81F7-FE740BB25640}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Departamento">
   <location ref="A42:C46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -6956,8 +7042,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21B37867-9065-4A1A-8F9D-602C961E31FC}" name="TablaDinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Departamento" colHeaderCaption="Delegacion">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21B37867-9065-4A1A-8F9D-602C961E31FC}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Departamento" colHeaderCaption="Delegacion">
   <location ref="A35:E40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -7051,49 +7137,66 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6E4FAF8-D892-43C8-BE91-58C2A2631ACB}" name="TablaDinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Departamento">
-  <location ref="A29:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{594E8A28-4CAB-4EA8-82BD-04CC4FC85CE5}" name="TablaDinámica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A34:E43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="17">
-        <item x="11"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="1"/>
+        <item x="2"/>
         <item x="6"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="4">
+        <item x="2"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="3"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -7106,14 +7209,11 @@
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Cuenta de Nombre" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Puntos" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight14" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -7125,8 +7225,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C91E1472-63F3-46E6-9F64-31658262599F}" name="TablaDinámica9" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C91E1472-63F3-46E6-9F64-31658262599F}" name="TablaDinámica9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A66:E71" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -7197,8 +7297,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDC47F15-C5F7-44E9-8B17-17AE227C67E3}" name="TablaDinámica8" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDC47F15-C5F7-44E9-8B17-17AE227C67E3}" name="TablaDinámica8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A52:E64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -7302,8 +7402,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4449C567-29AD-495A-9FAD-72027511EDDD}" name="TablaDinámica7" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4449C567-29AD-495A-9FAD-72027511EDDD}" name="TablaDinámica7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A45:E50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -7374,96 +7474,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{594E8A28-4CAB-4EA8-82BD-04CC4FC85CE5}" name="TablaDinámica6" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A34:E43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Puntos" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight14" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CE2506B-E377-4748-B5EF-A2FBDE50A83A}" name="TablaDinámica12" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CE2506B-E377-4748-B5EF-A2FBDE50A83A}" name="TablaDinámica12" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A50:C73" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -9813,7 +9825,7 @@
       <c r="H27" s="8"/>
     </row>
     <row r="29" spans="1:18" ht="14.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B29" t="s">
@@ -9837,10 +9849,10 @@
       <c r="R29"/>
     </row>
     <row r="30" spans="1:18" ht="14.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="40">
         <v>5</v>
       </c>
       <c r="C30"/>
@@ -9861,10 +9873,10 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:18" ht="14.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="40">
         <v>6</v>
       </c>
       <c r="C31"/>
@@ -9885,10 +9897,10 @@
       <c r="R31"/>
     </row>
     <row r="32" spans="1:18" ht="14.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="40">
         <v>5</v>
       </c>
       <c r="C32"/>
@@ -9909,10 +9921,10 @@
       <c r="R32"/>
     </row>
     <row r="33" spans="1:18" ht="14.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="40">
         <v>16</v>
       </c>
       <c r="C33"/>
@@ -9953,10 +9965,10 @@
       <c r="R34"/>
     </row>
     <row r="35" spans="1:18" ht="14.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="37" t="s">
         <v>163</v>
       </c>
       <c r="C35"/>
@@ -9964,7 +9976,7 @@
       <c r="E35"/>
     </row>
     <row r="36" spans="1:18" ht="14.25">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B36" t="s">
@@ -9981,68 +9993,68 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.25">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="40">
         <v>1</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="40">
         <v>3</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="40">
         <v>1</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="14.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="40">
         <v>1</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="40">
         <v>2</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="40">
         <v>3</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="40">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="14.25">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="40">
         <v>4</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43">
+      <c r="C39" s="40"/>
+      <c r="D39" s="40">
         <v>1</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="40">
         <v>6</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="40">
         <v>5</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="40">
         <v>5</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="40">
         <v>16</v>
       </c>
     </row>
@@ -10052,7 +10064,7 @@
       <c r="C41"/>
     </row>
     <row r="42" spans="1:18" ht="14.25">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
@@ -10075,13 +10087,13 @@
       <c r="O42"/>
     </row>
     <row r="43" spans="1:18" ht="14.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="40">
         <v>5619.4631759883641</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="40">
         <v>1123.8926351976729</v>
       </c>
       <c r="D43"/>
@@ -10098,13 +10110,13 @@
       <c r="O43"/>
     </row>
     <row r="44" spans="1:18" ht="14.25">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="40">
         <v>8083.6128039618725</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="40">
         <v>1347.2688006603121</v>
       </c>
       <c r="D44"/>
@@ -10121,13 +10133,13 @@
       <c r="O44"/>
     </row>
     <row r="45" spans="1:18" ht="14.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="40">
         <v>7783.1067517699803</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="40">
         <v>1556.6213503539961</v>
       </c>
       <c r="D45"/>
@@ -10144,13 +10156,13 @@
       <c r="O45"/>
     </row>
     <row r="46" spans="1:18" ht="14.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="40">
         <v>21486.182731720219</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="40">
         <v>1342.8864207325137</v>
       </c>
       <c r="D46"/>
@@ -10184,7 +10196,7 @@
       <c r="O47"/>
     </row>
     <row r="48" spans="1:18" ht="14.25">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
@@ -10193,37 +10205,37 @@
       <c r="C48"/>
     </row>
     <row r="49" spans="1:3" ht="14.25">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="40">
         <v>2404.0484175351294</v>
       </c>
       <c r="C49"/>
     </row>
     <row r="50" spans="1:3" ht="14.25">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="40">
         <v>2554.301443631075</v>
       </c>
       <c r="C50"/>
     </row>
     <row r="51" spans="1:3" ht="14.25">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="40">
         <v>2404.0484175351294</v>
       </c>
       <c r="C51"/>
     </row>
     <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="40">
         <v>2554.301443631075</v>
       </c>
       <c r="C52"/>
@@ -11411,10 +11423,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="37" t="s">
         <v>158</v>
       </c>
       <c r="C34"/>
@@ -11422,7 +11434,7 @@
       <c r="E34"/>
     </row>
     <row r="35" spans="1:5" ht="14.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B35" t="s">
@@ -11439,138 +11451,138 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="40">
         <v>9</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="40">
         <v>4</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="40">
         <v>6</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="40">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="40">
         <v>4</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="40">
         <v>3</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="40">
         <v>3</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="40">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="40">
         <v>8</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="40">
         <v>5</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="40">
         <v>7</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="40">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="40">
         <v>4</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="40">
         <v>7</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="40">
         <v>5</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="40">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="40">
         <v>3</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="40">
         <v>8</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="40">
         <v>4</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="40">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="40">
         <v>8</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="40">
         <v>6</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="40">
         <v>2</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="40">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="40">
         <v>4</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="40">
         <v>6</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="40">
         <v>5</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="40">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="40">
         <v>40</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="40">
         <v>39</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="40">
         <v>32</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="40">
         <v>111</v>
       </c>
     </row>
@@ -11580,10 +11592,10 @@
       <c r="C44"/>
     </row>
     <row r="45" spans="1:5" ht="14.25">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="37" t="s">
         <v>158</v>
       </c>
       <c r="C45"/>
@@ -11591,7 +11603,7 @@
       <c r="E45"/>
     </row>
     <row r="46" spans="1:5" ht="14.25">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B46" t="s">
@@ -11608,70 +11620,70 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="40">
         <v>25</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="40">
         <v>15</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="40">
         <v>15</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="40">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="40">
         <v>7</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="40">
         <v>15</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="40">
         <v>9</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="40">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="14.25">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="40">
         <v>8</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="40">
         <v>9</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="40">
         <v>8</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="40">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="14.25">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="40">
         <v>40</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="40">
         <v>39</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="40">
         <v>32</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="40">
         <v>111</v>
       </c>
     </row>
@@ -11681,10 +11693,10 @@
       <c r="C51"/>
     </row>
     <row r="52" spans="1:30" ht="14.25">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="37" t="s">
         <v>158</v>
       </c>
       <c r="C52"/>
@@ -11717,7 +11729,7 @@
       <c r="AD52"/>
     </row>
     <row r="53" spans="1:30" ht="14.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B53" t="s">
@@ -11759,19 +11771,19 @@
       <c r="AD53"/>
     </row>
     <row r="54" spans="1:30" ht="14.25">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="40">
         <v>25</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="40">
         <v>15</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="40">
         <v>15</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="40">
         <v>55</v>
       </c>
       <c r="F54"/>
@@ -11801,19 +11813,19 @@
       <c r="AD54"/>
     </row>
     <row r="55" spans="1:30" ht="14.25">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="43">
+      <c r="B55" s="40">
         <v>9</v>
       </c>
-      <c r="C55" s="43">
+      <c r="C55" s="40">
         <v>4</v>
       </c>
-      <c r="D55" s="43">
+      <c r="D55" s="40">
         <v>6</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="40">
         <v>19</v>
       </c>
       <c r="F55"/>
@@ -11843,19 +11855,19 @@
       <c r="AD55"/>
     </row>
     <row r="56" spans="1:30" ht="14.25">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="43">
+      <c r="B56" s="40">
         <v>8</v>
       </c>
-      <c r="C56" s="43">
+      <c r="C56" s="40">
         <v>5</v>
       </c>
-      <c r="D56" s="43">
+      <c r="D56" s="40">
         <v>7</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E56" s="40">
         <v>20</v>
       </c>
       <c r="F56"/>
@@ -11885,19 +11897,19 @@
       <c r="AD56"/>
     </row>
     <row r="57" spans="1:30" ht="14.25">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="43">
+      <c r="B57" s="40">
         <v>8</v>
       </c>
-      <c r="C57" s="43">
+      <c r="C57" s="40">
         <v>6</v>
       </c>
-      <c r="D57" s="43">
+      <c r="D57" s="40">
         <v>2</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="40">
         <v>16</v>
       </c>
       <c r="F57"/>
@@ -11927,19 +11939,19 @@
       <c r="AD57"/>
     </row>
     <row r="58" spans="1:30" ht="14.25">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="40">
         <v>7</v>
       </c>
-      <c r="C58" s="43">
+      <c r="C58" s="40">
         <v>15</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="40">
         <v>9</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="40">
         <v>31</v>
       </c>
       <c r="F58"/>
@@ -11969,19 +11981,19 @@
       <c r="AD58"/>
     </row>
     <row r="59" spans="1:30" ht="14.25">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="43">
+      <c r="B59" s="40">
         <v>4</v>
       </c>
-      <c r="C59" s="43">
+      <c r="C59" s="40">
         <v>7</v>
       </c>
-      <c r="D59" s="43">
+      <c r="D59" s="40">
         <v>5</v>
       </c>
-      <c r="E59" s="43">
+      <c r="E59" s="40">
         <v>16</v>
       </c>
       <c r="F59"/>
@@ -11990,19 +12002,19 @@
       <c r="I59"/>
     </row>
     <row r="60" spans="1:30" ht="14.25">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="40">
         <v>3</v>
       </c>
-      <c r="C60" s="43">
+      <c r="C60" s="40">
         <v>8</v>
       </c>
-      <c r="D60" s="43">
+      <c r="D60" s="40">
         <v>4</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="40">
         <v>15</v>
       </c>
       <c r="F60"/>
@@ -12011,19 +12023,19 @@
       <c r="I60"/>
     </row>
     <row r="61" spans="1:30" ht="14.25">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="43">
+      <c r="B61" s="40">
         <v>8</v>
       </c>
-      <c r="C61" s="43">
+      <c r="C61" s="40">
         <v>9</v>
       </c>
-      <c r="D61" s="43">
+      <c r="D61" s="40">
         <v>8</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="40">
         <v>25</v>
       </c>
       <c r="F61"/>
@@ -12032,19 +12044,19 @@
       <c r="I61"/>
     </row>
     <row r="62" spans="1:30" ht="14.25">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="40">
         <v>4</v>
       </c>
-      <c r="C62" s="43">
+      <c r="C62" s="40">
         <v>3</v>
       </c>
-      <c r="D62" s="43">
+      <c r="D62" s="40">
         <v>3</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="40">
         <v>10</v>
       </c>
       <c r="F62"/>
@@ -12053,19 +12065,19 @@
       <c r="I62"/>
     </row>
     <row r="63" spans="1:30" ht="14.25">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="43">
+      <c r="B63" s="40">
         <v>4</v>
       </c>
-      <c r="C63" s="43">
+      <c r="C63" s="40">
         <v>6</v>
       </c>
-      <c r="D63" s="43">
+      <c r="D63" s="40">
         <v>5</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="40">
         <v>15</v>
       </c>
       <c r="F63"/>
@@ -12074,19 +12086,19 @@
       <c r="I63"/>
     </row>
     <row r="64" spans="1:30" ht="14.25">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="40">
         <v>40</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="40">
         <v>39</v>
       </c>
-      <c r="D64" s="43">
+      <c r="D64" s="40">
         <v>32</v>
       </c>
-      <c r="E64" s="43">
+      <c r="E64" s="40">
         <v>111</v>
       </c>
       <c r="F64"/>
@@ -12106,10 +12118,10 @@
       <c r="I65"/>
     </row>
     <row r="66" spans="1:9" ht="14.25">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="37" t="s">
         <v>158</v>
       </c>
       <c r="C66"/>
@@ -12121,7 +12133,7 @@
       <c r="I66"/>
     </row>
     <row r="67" spans="1:9" ht="14.25">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B67" t="s">
@@ -12138,70 +12150,70 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="40">
         <v>8.3333333333333339</v>
       </c>
-      <c r="C68" s="43">
+      <c r="C68" s="40">
         <v>5</v>
       </c>
-      <c r="D68" s="43">
+      <c r="D68" s="40">
         <v>5</v>
       </c>
-      <c r="E68" s="43">
+      <c r="E68" s="40">
         <v>6.1111111111111107</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="43">
+      <c r="B69" s="40">
         <v>3.5</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="40">
         <v>7.5</v>
       </c>
-      <c r="D69" s="43">
+      <c r="D69" s="40">
         <v>4.5</v>
       </c>
-      <c r="E69" s="43">
+      <c r="E69" s="40">
         <v>5.166666666666667</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.25">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="40">
         <v>4</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="40">
         <v>4.5</v>
       </c>
-      <c r="D70" s="43">
+      <c r="D70" s="40">
         <v>4</v>
       </c>
-      <c r="E70" s="43">
+      <c r="E70" s="40">
         <v>4.166666666666667</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="43">
+      <c r="B71" s="40">
         <v>5.7142857142857144</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="40">
         <v>5.5714285714285712</v>
       </c>
-      <c r="D71" s="43">
+      <c r="D71" s="40">
         <v>4.5714285714285712</v>
       </c>
-      <c r="E71" s="43">
+      <c r="E71" s="40">
         <v>5.2857142857142856</v>
       </c>
     </row>
@@ -13408,7 +13420,7 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="14.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B34" t="s">
@@ -13433,10 +13445,10 @@
       <c r="S34"/>
     </row>
     <row r="35" spans="1:19" ht="14.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="40">
         <v>4</v>
       </c>
       <c r="C35"/>
@@ -13458,10 +13470,10 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="1:19" ht="14.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="40">
         <v>2</v>
       </c>
       <c r="C36"/>
@@ -13483,10 +13495,10 @@
       <c r="S36"/>
     </row>
     <row r="37" spans="1:19" ht="14.25">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="40">
         <v>4</v>
       </c>
       <c r="C37"/>
@@ -13508,10 +13520,10 @@
       <c r="S37"/>
     </row>
     <row r="38" spans="1:19" ht="14.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="40">
         <v>3</v>
       </c>
       <c r="C38"/>
@@ -13533,10 +13545,10 @@
       <c r="S38"/>
     </row>
     <row r="39" spans="1:19" ht="14.25">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="40">
         <v>4</v>
       </c>
       <c r="C39"/>
@@ -13558,10 +13570,10 @@
       <c r="S39"/>
     </row>
     <row r="40" spans="1:19" ht="14.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="40">
         <v>17</v>
       </c>
       <c r="C40"/>
@@ -13604,7 +13616,7 @@
       <c r="S41"/>
     </row>
     <row r="42" spans="1:19" ht="14.25">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B42" t="s">
@@ -13618,86 +13630,86 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="14.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="40">
         <v>4</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="40">
         <v>-27.9</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="40">
         <v>-113.23</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="14.25">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="40">
         <v>2</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="40">
         <v>-61.254999999999995</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="40">
         <v>-88</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="40">
         <v>4</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="40">
         <v>38.434999999999995</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="40">
         <v>-76.900000000000006</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="14.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="40">
         <v>3</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="40">
         <v>3.26</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="40">
         <v>-50.879999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="14.25">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="40">
         <v>4</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="40">
         <v>-39.267499999999998</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="40">
         <v>-127.83000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.25">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="40">
         <v>17</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="40">
         <v>-13.391764705882354</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="40">
         <v>-456.84</v>
       </c>
     </row>
@@ -13707,10 +13719,10 @@
       <c r="C49"/>
     </row>
     <row r="50" spans="1:3" ht="14.25">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="37" t="s">
         <v>114</v>
       </c>
       <c r="C50" t="s">
@@ -13724,7 +13736,7 @@
       <c r="B51" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="40">
         <v>39.25</v>
       </c>
     </row>
@@ -13733,7 +13745,7 @@
       <c r="B52" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52" s="40">
         <v>23.62</v>
       </c>
     </row>
@@ -13742,7 +13754,7 @@
       <c r="B53" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="43">
+      <c r="C53" s="40">
         <v>8.32</v>
       </c>
     </row>
@@ -13751,7 +13763,7 @@
       <c r="B54" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="40">
         <v>5.54</v>
       </c>
     </row>
@@ -13760,7 +13772,7 @@
         <v>170</v>
       </c>
       <c r="B55"/>
-      <c r="C55" s="43">
+      <c r="C55" s="40">
         <v>19.182500000000001</v>
       </c>
     </row>
@@ -13771,7 +13783,7 @@
       <c r="B56" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="43">
+      <c r="C56" s="40">
         <v>7.69</v>
       </c>
     </row>
@@ -13780,7 +13792,7 @@
       <c r="B57" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="43">
+      <c r="C57" s="40">
         <v>9.4</v>
       </c>
     </row>
@@ -13789,7 +13801,7 @@
         <v>171</v>
       </c>
       <c r="B58"/>
-      <c r="C58" s="43">
+      <c r="C58" s="40">
         <v>8.5449999999999999</v>
       </c>
     </row>
@@ -13800,7 +13812,7 @@
       <c r="B59" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="43">
+      <c r="C59" s="40">
         <v>13.57</v>
       </c>
     </row>
@@ -13809,7 +13821,7 @@
       <c r="B60" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="43">
+      <c r="C60" s="40">
         <v>29.7</v>
       </c>
     </row>
@@ -13818,7 +13830,7 @@
       <c r="B61" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="43">
+      <c r="C61" s="40">
         <v>20.47</v>
       </c>
     </row>
@@ -13827,7 +13839,7 @@
       <c r="B62" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="43">
+      <c r="C62" s="40">
         <v>25.9</v>
       </c>
     </row>
@@ -13836,7 +13848,7 @@
         <v>172</v>
       </c>
       <c r="B63"/>
-      <c r="C63" s="43">
+      <c r="C63" s="40">
         <v>22.409999999999997</v>
       </c>
     </row>
@@ -13847,7 +13859,7 @@
       <c r="B64" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="40">
         <v>5.4</v>
       </c>
     </row>
@@ -13856,7 +13868,7 @@
       <c r="B65" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="40">
         <v>18.13</v>
       </c>
     </row>
@@ -13865,7 +13877,7 @@
       <c r="B66" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="40">
         <v>1.31</v>
       </c>
     </row>
@@ -13874,7 +13886,7 @@
         <v>173</v>
       </c>
       <c r="B67"/>
-      <c r="C67" s="43">
+      <c r="C67" s="40">
         <v>8.2799999999999994</v>
       </c>
     </row>
@@ -13885,7 +13897,7 @@
       <c r="B68" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="43">
+      <c r="C68" s="40">
         <v>9.61</v>
       </c>
     </row>
@@ -13894,7 +13906,7 @@
       <c r="B69" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="40">
         <v>5.45</v>
       </c>
     </row>
@@ -13903,7 +13915,7 @@
       <c r="B70" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="40">
         <v>6.21</v>
       </c>
     </row>
@@ -13912,7 +13924,7 @@
       <c r="B71" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="40">
         <v>4.21</v>
       </c>
     </row>
@@ -13921,7 +13933,7 @@
         <v>174</v>
       </c>
       <c r="B72"/>
-      <c r="C72" s="43">
+      <c r="C72" s="40">
         <v>6.37</v>
       </c>
     </row>
@@ -13930,7 +13942,7 @@
         <v>157</v>
       </c>
       <c r="B73"/>
-      <c r="C73" s="43">
+      <c r="C73" s="40">
         <v>13.751764705882355</v>
       </c>
     </row>
@@ -13946,8 +13958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A12:J143"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -13969,17 +13981,17 @@
       <c r="C13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="2:10" ht="39.75">
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" spans="2:10" ht="52.9">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
@@ -16909,7 +16921,7 @@
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="40" t="s">
+      <c r="A116" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B116" t="s">
@@ -16917,71 +16929,71 @@
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="41" t="s">
+      <c r="A117" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B117" s="44">
+      <c r="B117" s="41">
         <v>1046</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="41" t="s">
+      <c r="A118" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B118" s="44">
+      <c r="B118" s="41">
         <v>880</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="41" t="s">
+      <c r="A119" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B119" s="44">
+      <c r="B119" s="41">
         <v>1074</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="41" t="s">
+      <c r="A120" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="44">
+      <c r="B120" s="41">
         <v>664</v>
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="41" t="s">
+      <c r="A121" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B121" s="44">
+      <c r="B121" s="41">
         <v>1136</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="41" t="s">
+      <c r="A122" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B122" s="44">
+      <c r="B122" s="41">
         <v>1576</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="41" t="s">
+      <c r="A123" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B123" s="43">
+      <c r="B123" s="40">
         <v>6376</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="40" t="s">
+      <c r="A125" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="B125" s="40" t="s">
+      <c r="B125" s="37" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="40" t="s">
+      <c r="A126" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B126" t="s">
@@ -16998,132 +17010,132 @@
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B127" s="44">
+      <c r="B127" s="41">
         <v>47</v>
       </c>
-      <c r="C127" s="44">
+      <c r="C127" s="41">
         <v>546</v>
       </c>
-      <c r="D127" s="44">
+      <c r="D127" s="41">
         <v>453</v>
       </c>
-      <c r="E127" s="43">
+      <c r="E127" s="40">
         <v>1046</v>
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B128" s="44">
+      <c r="B128" s="41">
         <v>139</v>
       </c>
-      <c r="C128" s="44">
+      <c r="C128" s="41">
         <v>102</v>
       </c>
-      <c r="D128" s="44">
+      <c r="D128" s="41">
         <v>639</v>
       </c>
-      <c r="E128" s="43">
+      <c r="E128" s="40">
         <v>880</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="41" t="s">
+      <c r="A129" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B129" s="44">
+      <c r="B129" s="41">
         <v>58</v>
       </c>
-      <c r="C129" s="44">
+      <c r="C129" s="41">
         <v>414</v>
       </c>
-      <c r="D129" s="44">
+      <c r="D129" s="41">
         <v>602</v>
       </c>
-      <c r="E129" s="43">
+      <c r="E129" s="40">
         <v>1074</v>
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="41" t="s">
+      <c r="A130" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B130" s="44">
+      <c r="B130" s="41">
         <v>62</v>
       </c>
-      <c r="C130" s="44">
+      <c r="C130" s="41">
         <v>534</v>
       </c>
-      <c r="D130" s="44">
+      <c r="D130" s="41">
         <v>68</v>
       </c>
-      <c r="E130" s="43">
+      <c r="E130" s="40">
         <v>664</v>
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="41" t="s">
+      <c r="A131" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B131" s="44">
+      <c r="B131" s="41">
         <v>929</v>
       </c>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44">
+      <c r="C131" s="41"/>
+      <c r="D131" s="41">
         <v>207</v>
       </c>
-      <c r="E131" s="43">
+      <c r="E131" s="40">
         <v>1136</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="41" t="s">
+      <c r="A132" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B132" s="44">
+      <c r="B132" s="41">
         <v>125</v>
       </c>
-      <c r="C132" s="44">
+      <c r="C132" s="41">
         <v>977</v>
       </c>
-      <c r="D132" s="44">
+      <c r="D132" s="41">
         <v>474</v>
       </c>
-      <c r="E132" s="43">
+      <c r="E132" s="40">
         <v>1576</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="41" t="s">
+      <c r="A133" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B133" s="43">
+      <c r="B133" s="40">
         <v>1360</v>
       </c>
-      <c r="C133" s="43">
+      <c r="C133" s="40">
         <v>2573</v>
       </c>
-      <c r="D133" s="43">
+      <c r="D133" s="40">
         <v>2443</v>
       </c>
-      <c r="E133" s="43">
+      <c r="E133" s="40">
         <v>6376</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="40" t="s">
+      <c r="A135" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="B135" s="40" t="s">
+      <c r="B135" s="37" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="40" t="s">
+      <c r="A136" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B136" t="s">
@@ -17152,195 +17164,195 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="41" t="s">
+      <c r="A137" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B137" s="43"/>
-      <c r="C137" s="43">
+      <c r="B137" s="40"/>
+      <c r="C137" s="40">
         <v>297</v>
       </c>
-      <c r="D137" s="44">
+      <c r="D137" s="41">
         <v>55</v>
       </c>
-      <c r="E137" s="43">
+      <c r="E137" s="40">
         <v>118</v>
       </c>
-      <c r="F137" s="43">
+      <c r="F137" s="40">
         <v>47</v>
       </c>
-      <c r="G137" s="43">
+      <c r="G137" s="40">
         <v>184</v>
       </c>
-      <c r="H137" s="43">
+      <c r="H137" s="40">
         <v>345</v>
       </c>
-      <c r="I137" s="43">
+      <c r="I137" s="40">
         <v>1046</v>
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="41" t="s">
+      <c r="A138" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B138" s="43">
+      <c r="B138" s="40">
         <v>102</v>
       </c>
-      <c r="C138" s="43">
+      <c r="C138" s="40">
         <v>127</v>
       </c>
-      <c r="D138" s="43">
+      <c r="D138" s="40">
         <v>205</v>
       </c>
-      <c r="E138" s="43">
+      <c r="E138" s="40">
         <v>299</v>
       </c>
-      <c r="F138" s="43">
+      <c r="F138" s="40">
         <v>147</v>
       </c>
-      <c r="G138" s="43"/>
-      <c r="H138" s="43"/>
-      <c r="I138" s="43">
+      <c r="G138" s="40"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="40">
         <v>880</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="41" t="s">
+      <c r="A139" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B139" s="43">
+      <c r="B139" s="40">
         <v>220</v>
       </c>
-      <c r="C139" s="43">
+      <c r="C139" s="40">
         <v>60</v>
       </c>
-      <c r="D139" s="43"/>
-      <c r="E139" s="43">
+      <c r="D139" s="40"/>
+      <c r="E139" s="40">
         <v>46</v>
       </c>
-      <c r="F139" s="43">
+      <c r="F139" s="40">
         <v>226</v>
       </c>
-      <c r="G139" s="43">
+      <c r="G139" s="40">
         <v>121</v>
       </c>
-      <c r="H139" s="43">
+      <c r="H139" s="40">
         <v>401</v>
       </c>
-      <c r="I139" s="43">
+      <c r="I139" s="40">
         <v>1074</v>
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="41" t="s">
+      <c r="A140" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="43">
+      <c r="B140" s="40">
         <v>10</v>
       </c>
-      <c r="C140" s="43">
+      <c r="C140" s="40">
         <v>119</v>
       </c>
-      <c r="D140" s="43">
+      <c r="D140" s="40">
         <v>46</v>
       </c>
-      <c r="E140" s="43">
+      <c r="E140" s="40">
         <v>96</v>
       </c>
-      <c r="F140" s="43"/>
-      <c r="G140" s="43">
+      <c r="F140" s="40"/>
+      <c r="G140" s="40">
         <v>200</v>
       </c>
-      <c r="H140" s="43">
+      <c r="H140" s="40">
         <v>193</v>
       </c>
-      <c r="I140" s="43">
+      <c r="I140" s="40">
         <v>664</v>
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="41" t="s">
+      <c r="A141" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B141" s="43">
+      <c r="B141" s="40">
         <v>370</v>
       </c>
-      <c r="C141" s="43">
+      <c r="C141" s="40">
         <v>156</v>
       </c>
-      <c r="D141" s="43">
+      <c r="D141" s="40">
         <v>90</v>
       </c>
-      <c r="E141" s="43">
+      <c r="E141" s="40">
         <v>108</v>
       </c>
-      <c r="F141" s="43">
+      <c r="F141" s="40">
         <v>161</v>
       </c>
-      <c r="G141" s="43">
+      <c r="G141" s="40">
         <v>92</v>
       </c>
-      <c r="H141" s="43">
+      <c r="H141" s="40">
         <v>159</v>
       </c>
-      <c r="I141" s="43">
+      <c r="I141" s="40">
         <v>1136</v>
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="41" t="s">
+      <c r="A142" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B142" s="43">
+      <c r="B142" s="40">
         <v>84</v>
       </c>
-      <c r="C142" s="43">
+      <c r="C142" s="40">
         <v>407</v>
       </c>
-      <c r="D142" s="43">
+      <c r="D142" s="40">
         <v>97</v>
       </c>
-      <c r="E142" s="43">
+      <c r="E142" s="40">
         <v>8</v>
       </c>
-      <c r="F142" s="43">
+      <c r="F142" s="40">
         <v>337</v>
       </c>
-      <c r="G142" s="43">
+      <c r="G142" s="40">
         <v>273</v>
       </c>
-      <c r="H142" s="43">
+      <c r="H142" s="40">
         <v>370</v>
       </c>
-      <c r="I142" s="43">
+      <c r="I142" s="40">
         <v>1576</v>
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="41" t="s">
+      <c r="A143" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B143" s="43">
+      <c r="B143" s="40">
         <v>786</v>
       </c>
-      <c r="C143" s="43">
+      <c r="C143" s="40">
         <v>1166</v>
       </c>
-      <c r="D143" s="43">
+      <c r="D143" s="40">
         <v>493</v>
       </c>
-      <c r="E143" s="43">
+      <c r="E143" s="40">
         <v>675</v>
       </c>
-      <c r="F143" s="43">
+      <c r="F143" s="40">
         <v>918</v>
       </c>
-      <c r="G143" s="43">
+      <c r="G143" s="40">
         <v>870</v>
       </c>
-      <c r="H143" s="43">
+      <c r="H143" s="40">
         <v>1468</v>
       </c>
-      <c r="I143" s="43">
+      <c r="I143" s="40">
         <v>6376</v>
       </c>
     </row>
@@ -17373,14 +17385,14 @@
       <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="2:9" ht="66">
       <c r="B14" s="1" t="s">
@@ -20021,8 +20033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75"/>
@@ -20207,7 +20219,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:17" ht="13.15">
       <c r="A17" s="35" t="s">
         <v>148</v>
       </c>
@@ -20238,8 +20250,23 @@
       <c r="K17" s="35">
         <v>220</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="35" t="s">
         <v>148</v>
       </c>
@@ -20270,8 +20297,23 @@
       <c r="K18" s="35">
         <v>675</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="P18" s="35">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="35" t="s">
         <v>151</v>
       </c>
@@ -20302,8 +20344,23 @@
       <c r="K19" s="35">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19" s="35">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="35" t="s">
         <v>145</v>
       </c>
@@ -20334,8 +20391,23 @@
       <c r="K20" s="35">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="35">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="35" t="s">
         <v>145</v>
       </c>
@@ -20367,7 +20439,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:17">
       <c r="A22" s="35" t="s">
         <v>145</v>
       </c>
@@ -20399,8 +20471,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25">
-      <c r="A24" s="40" t="s">
+    <row r="24" spans="1:17" ht="14.25">
+      <c r="A24" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B24" t="s">
@@ -20410,69 +20482,69 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.25">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:17" ht="14.25">
+      <c r="A25" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="40">
         <v>72</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="40">
         <v>360</v>
       </c>
       <c r="J25" s="36"/>
     </row>
-    <row r="26" spans="1:11" ht="14.25">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:17" ht="14.25">
+      <c r="A26" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="40">
         <v>104</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="40">
         <v>1040</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:17" ht="14.25">
+      <c r="A27" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="40">
         <v>93</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="40">
         <v>1395</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:17" ht="14.25">
+      <c r="A28" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="40">
         <v>269</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="40">
         <v>2795</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.25">
+    <row r="29" spans="1:17" ht="14.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:11" ht="14.25">
-      <c r="A30" s="40" t="s">
+    <row r="30" spans="1:17" ht="14.25">
+      <c r="A30" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="37" t="s">
         <v>158</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:11" ht="14.25">
-      <c r="A31" s="40" t="s">
+    <row r="31" spans="1:17" ht="14.25">
+      <c r="A31" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B31" t="s">
@@ -20488,89 +20560,89 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25">
-      <c r="A32" s="41" t="s">
+    <row r="32" spans="1:17" ht="14.25">
+      <c r="A32" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="40">
         <v>500</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43">
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40">
         <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43">
+      <c r="B33" s="40"/>
+      <c r="C33" s="40">
         <v>540</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43">
+      <c r="D33" s="40"/>
+      <c r="E33" s="40">
         <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40">
         <v>895</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="40">
         <v>340</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="40">
         <v>1235</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="40">
         <v>200</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43">
+      <c r="C35" s="40"/>
+      <c r="D35" s="40">
         <v>105</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="40">
         <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="40">
         <v>215</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43">
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40">
         <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="40">
         <v>915</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="40">
         <v>1435</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="40">
         <v>445</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="40">
         <v>2795</v>
       </c>
     </row>
@@ -20580,7 +20652,7 @@
       <c r="C38"/>
     </row>
     <row r="39" spans="1:5" ht="14.25">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B39" t="s">
@@ -20591,46 +20663,46 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="40">
         <v>89</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="40">
         <v>915</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="40">
         <v>125</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="40">
         <v>1435</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="40">
         <v>55</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="40">
         <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="40">
         <v>269</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="40">
         <v>2795</v>
       </c>
     </row>
@@ -20708,6 +20780,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -20821,12 +20899,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -20837,6 +20909,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D15757A-5554-4EF3-B324-7070C3BD3BE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22ED4166-191F-474E-B642-7A38EC8C01AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20852,21 +20939,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D15757A-5554-4EF3-B324-7070C3BD3BE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE8718F8-82F6-4388-8A46-E4F0E0956337}">
   <ds:schemaRefs>
